--- a/database/seeds/节目拆分.xlsx
+++ b/database/seeds/节目拆分.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="184">
   <si>
     <t>镜视界</t>
   </si>
@@ -859,10 +859,6 @@
   </si>
   <si>
     <t>奥斯卡爆米花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss直聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2187,11 +2183,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="182" zoomScaleNormal="182" zoomScalePageLayoutView="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4209,7 +4205,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>175</v>
@@ -4343,158 +4339,158 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="9">
-        <v>96</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D94" s="10" t="s">
+      <c r="A94" s="6">
+        <v>97</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>107</v>
+      <c r="E94" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>171</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>91</v>
@@ -4505,70 +4501,47 @@
     </row>
     <row r="101" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
-        <v>106</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G103" s="3" t="s">
         <v>146</v>
       </c>
     </row>
